--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H2">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I2">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J2">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N2">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O2">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P2">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q2">
-        <v>6.646136481798333</v>
+        <v>0.6597417607134445</v>
       </c>
       <c r="R2">
-        <v>59.815228336185</v>
+        <v>5.937675846421</v>
       </c>
       <c r="S2">
-        <v>0.002162725298519984</v>
+        <v>0.0001528778654255857</v>
       </c>
       <c r="T2">
-        <v>0.002162725298519984</v>
+        <v>0.0001528778654255857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H3">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I3">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J3">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O3">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P3">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q3">
-        <v>2.435125491348333</v>
+        <v>0.5562176911676667</v>
       </c>
       <c r="R3">
-        <v>21.916129422135</v>
+        <v>5.005959220509</v>
       </c>
       <c r="S3">
-        <v>0.0007924163940408456</v>
+        <v>0.0001288888750133166</v>
       </c>
       <c r="T3">
-        <v>0.0007924163940408454</v>
+        <v>0.0001288888750133166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H4">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I4">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J4">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N4">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O4">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P4">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q4">
-        <v>73.68870851336888</v>
+        <v>25.31957279286812</v>
       </c>
       <c r="R4">
-        <v>663.19837662032</v>
+        <v>227.876155135813</v>
       </c>
       <c r="S4">
-        <v>0.02397910945006736</v>
+        <v>0.005867147530384509</v>
       </c>
       <c r="T4">
-        <v>0.02397910945006735</v>
+        <v>0.005867147530384509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I5">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J5">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N5">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O5">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P5">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q5">
-        <v>181.6692516485209</v>
+        <v>78.95191999261232</v>
       </c>
       <c r="R5">
-        <v>1635.023264836689</v>
+        <v>710.5672799335108</v>
       </c>
       <c r="S5">
-        <v>0.05911715589643402</v>
+        <v>0.01829503863249418</v>
       </c>
       <c r="T5">
-        <v>0.05911715589643402</v>
+        <v>0.01829503863249418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I6">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J6">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O6">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P6">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q6">
         <v>66.56309675479099</v>
@@ -818,10 +818,10 @@
         <v>599.0678707931188</v>
       </c>
       <c r="S6">
-        <v>0.02166035766699564</v>
+        <v>0.01542425347909587</v>
       </c>
       <c r="T6">
-        <v>0.02166035766699563</v>
+        <v>0.01542425347909587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I7">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J7">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N7">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O7">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P7">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q7">
-        <v>2014.248814665845</v>
+        <v>3030.01720434962</v>
       </c>
       <c r="R7">
-        <v>18128.23933199261</v>
+        <v>27270.15483914658</v>
       </c>
       <c r="S7">
-        <v>0.6554585330773979</v>
+        <v>0.7021270897007369</v>
       </c>
       <c r="T7">
-        <v>0.6554585330773979</v>
+        <v>0.7021270897007369</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H8">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I8">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J8">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.457778999999999</v>
+        <v>3.241087666666667</v>
       </c>
       <c r="N8">
-        <v>22.373337</v>
+        <v>9.723262999999999</v>
       </c>
       <c r="O8">
-        <v>0.08029647035915141</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="P8">
-        <v>0.0802964703591514</v>
+        <v>0.02486257877280725</v>
       </c>
       <c r="Q8">
-        <v>58.43869634762834</v>
+        <v>27.682363119312</v>
       </c>
       <c r="R8">
-        <v>525.9482671286549</v>
+        <v>249.141268073808</v>
       </c>
       <c r="S8">
-        <v>0.0190165891641974</v>
+        <v>0.006414662274887482</v>
       </c>
       <c r="T8">
-        <v>0.0190165891641974</v>
+        <v>0.006414662274887483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H9">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I9">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J9">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.197526999999999</v>
       </c>
       <c r="O9">
-        <v>0.02942039820764526</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="P9">
-        <v>0.02942039820764525</v>
+        <v>0.02096124117795788</v>
       </c>
       <c r="Q9">
-        <v>21.41177201927833</v>
+        <v>23.338556109648</v>
       </c>
       <c r="R9">
-        <v>192.705948173505</v>
+        <v>210.047004986832</v>
       </c>
       <c r="S9">
-        <v>0.006967624146608779</v>
+        <v>0.005408098823848699</v>
       </c>
       <c r="T9">
-        <v>0.006967624146608777</v>
+        <v>0.005408098823848699</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H10">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I10">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J10">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.68775466666666</v>
+        <v>124.3864796666667</v>
       </c>
       <c r="N10">
-        <v>248.063264</v>
+        <v>373.159439</v>
       </c>
       <c r="O10">
-        <v>0.8902831314332034</v>
+        <v>0.9541761800492348</v>
       </c>
       <c r="P10">
-        <v>0.8902831314332033</v>
+        <v>0.9541761800492349</v>
       </c>
       <c r="Q10">
-        <v>647.9361464897955</v>
+        <v>1062.393878659536</v>
       </c>
       <c r="R10">
-        <v>5831.42531840816</v>
+        <v>9561.544907935824</v>
       </c>
       <c r="S10">
-        <v>0.2108454889057381</v>
+        <v>0.2461819428181133</v>
       </c>
       <c r="T10">
-        <v>0.210845488905738</v>
+        <v>0.2461819428181134</v>
       </c>
     </row>
   </sheetData>
